--- a/TableResults.xlsx
+++ b/TableResults.xlsx
@@ -2,25 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katya\OneDrive\Documents\ISE 3230 Project\ISE3230\ISE3230\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23E89816-9428-426E-8BD1-1D23F904B0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D90A32EE-CE7F-45BA-A975-03D9A4CAF892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{965C898B-D708-433E-98F6-19A981446D10}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{965C898B-D708-433E-98F6-19A981446D10}"/>
   </bookViews>
   <sheets>
     <sheet name="Tournaments 1-5" sheetId="1" r:id="rId1"/>
     <sheet name="Tournaments 6-20" sheetId="2" r:id="rId2"/>
     <sheet name="Tournaments 21-50" sheetId="3" r:id="rId3"/>
-    <sheet name="Tournaments 51-100" sheetId="4" r:id="rId4"/>
+    <sheet name="Tournaments 51-100" sheetId="11" r:id="rId4"/>
     <sheet name="Tournaments 101-250" sheetId="5" r:id="rId5"/>
-    <sheet name="Tournaments 251-500" sheetId="6" r:id="rId6"/>
-    <sheet name="Tournaments 501-1000" sheetId="7" r:id="rId7"/>
-    <sheet name="Tournaments 1000+" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId6"/>
+    <sheet name="Tournaments 251-500" sheetId="6" r:id="rId7"/>
+    <sheet name="Tournaments 501-1000" sheetId="7" r:id="rId8"/>
+    <sheet name="Tournaments 1000+" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -241,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -284,11 +285,68 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color theme="1"/>
+        </left>
+        <right style="thick">
+          <color theme="1"/>
+        </right>
+        <top style="thick">
+          <color theme="1"/>
+        </top>
+        <bottom style="thick">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8"/>
+          <bgColor rgb="FF6A51A3"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -328,6 +386,15 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFA6A0C2"/>
+      <color rgb="FF9E9AC8"/>
+      <color rgb="FF6A51A3"/>
+      <color rgb="FF4B0082"/>
+      <color rgb="FF5E3E8E"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -340,10 +407,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FD0F8743-BBF7-42A3-95DC-4E097CF8DCE0}" name="Table1" displayName="Table1" ref="A1:A15" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FD0F8743-BBF7-42A3-95DC-4E097CF8DCE0}" name="Table1" displayName="Table1" ref="A1:A15" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:A15" xr:uid="{FD0F8743-BBF7-42A3-95DC-4E097CF8DCE0}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{5EC04233-C7BE-4202-B626-5EA5A95B0189}" name="Tournaments Rank 1-5" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{5EC04233-C7BE-4202-B626-5EA5A95B0189}" name="Tournaments Rank 1-5" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -668,13 +735,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E6EE2A-ACED-4183-A431-CC175D8D2DAD}">
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="53.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="51.77734375" style="1" customWidth="1"/>
     <col min="2" max="2" width="63.6640625" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
     <col min="4" max="4" width="46.88671875" customWidth="1"/>
@@ -715,7 +782,7 @@
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="20" t="s">
         <v>11</v>
       </c>
     </row>
@@ -866,7 +933,7 @@
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection sqref="A1:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -955,16 +1022,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468FFFF0-EE7F-4A59-8958-FFAF3A8C87CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466DA909-317F-45BB-8DEE-B21F94215C77}">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.21875" customWidth="1"/>
+    <col min="1" max="1" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.35">
@@ -978,7 +1045,7 @@
       </c>
     </row>
     <row r="3" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -988,7 +1055,7 @@
       </c>
     </row>
     <row r="5" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -998,7 +1065,7 @@
       </c>
     </row>
     <row r="7" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1008,7 +1075,7 @@
       </c>
     </row>
     <row r="9" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1023,12 +1090,13 @@
       </c>
     </row>
     <row r="12" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1036,7 +1104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040C05FE-5E00-403B-8D8C-6353D90F51FA}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -1106,6 +1174,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5DCA854-37C5-4AE6-A1F4-D8E5C19B7A23}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C4E48B-B382-41EB-A4E3-3450931EE1D5}">
   <dimension ref="A1:A11"/>
   <sheetViews>
@@ -1178,7 +1258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD271BE-D4E3-4406-B763-12AFCA7F0CAC}">
   <dimension ref="A1:A11"/>
   <sheetViews>
@@ -1251,7 +1331,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C00ECEF-8F1B-4C1F-BC18-0B2C5C15443C}">
   <dimension ref="A1:A11"/>
   <sheetViews>

--- a/TableResults.xlsx
+++ b/TableResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katya\OneDrive\Documents\ISE 3230 Project\ISE3230\ISE3230\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D90A32EE-CE7F-45BA-A975-03D9A4CAF892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB41A0CC-1434-4BCB-A821-0874F1D5D7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{965C898B-D708-433E-98F6-19A981446D10}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="4" activeTab="7" xr2:uid="{965C898B-D708-433E-98F6-19A981446D10}"/>
   </bookViews>
   <sheets>
     <sheet name="Tournaments 1-5" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,9 @@
     <sheet name="Tournaments 21-50" sheetId="3" r:id="rId3"/>
     <sheet name="Tournaments 51-100" sheetId="11" r:id="rId4"/>
     <sheet name="Tournaments 101-250" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet10" sheetId="10" r:id="rId6"/>
-    <sheet name="Tournaments 251-500" sheetId="6" r:id="rId7"/>
-    <sheet name="Tournaments 501-1000" sheetId="7" r:id="rId8"/>
-    <sheet name="Tournaments 1000+" sheetId="8" r:id="rId9"/>
+    <sheet name="Tournaments 251-500" sheetId="6" r:id="rId6"/>
+    <sheet name="Tournaments 501-1000" sheetId="7" r:id="rId7"/>
+    <sheet name="Tournaments 1000+" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -736,7 +735,7 @@
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B1" sqref="B1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -933,7 +932,7 @@
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A15"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1026,7 +1025,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1104,7 +1103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040C05FE-5E00-403B-8D8C-6353D90F51FA}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -1174,23 +1173,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5DCA854-37C5-4AE6-A1F4-D8E5C19B7A23}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C4E48B-B382-41EB-A4E3-3450931EE1D5}">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A14"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1258,7 +1245,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD271BE-D4E3-4406-B763-12AFCA7F0CAC}">
   <dimension ref="A1:A11"/>
   <sheetViews>
@@ -1331,11 +1318,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C00ECEF-8F1B-4C1F-BC18-0B2C5C15443C}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
